--- a/Mining Floodplain/Mining-All Final.xlsx
+++ b/Mining Floodplain/Mining-All Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iiser-my.sharepoint.com/personal/sohan16_iiserb_ac_in/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iiser-my.sharepoint.com/personal/sohan16_iiserb_ac_in/Documents/Excel data for Various Parameters/Mining Floodplain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEB9565F-2BA1-4245-A877-FA8DD16D9F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{FEB9565F-2BA1-4245-A877-FA8DD16D9F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F3A2459-F7E0-44E1-A305-700EEE2DE962}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D158628-0266-4261-A35A-35F5A7CFE78B}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +99,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -123,10 +130,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,10 +455,14 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -462,7 +476,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0.20435059070247941</v>
       </c>
     </row>
@@ -470,7 +484,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1.0645161861813111</v>
       </c>
     </row>
@@ -478,7 +492,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1.1650381668340981</v>
       </c>
     </row>
@@ -486,7 +500,7 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.79675235790172183</v>
       </c>
     </row>
@@ -494,7 +508,7 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1.2512053960552081</v>
       </c>
     </row>
@@ -502,7 +516,7 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0.8052480852072208</v>
       </c>
     </row>
@@ -510,7 +524,7 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>1.0055611691108239</v>
       </c>
     </row>
@@ -518,7 +532,7 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1.5131938887962699</v>
       </c>
     </row>
@@ -526,7 +540,7 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>1.22171564560501</v>
       </c>
     </row>
@@ -534,7 +548,7 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1.4205971549072229</v>
       </c>
     </row>
@@ -542,7 +556,7 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>1.1617830390603039</v>
       </c>
     </row>
@@ -550,7 +564,7 @@
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>1.96984667874883</v>
       </c>
     </row>
@@ -558,7 +572,7 @@
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>2.3333210651448999</v>
       </c>
     </row>
@@ -566,12 +580,13 @@
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>1.1809870593315099</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>